--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>734200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>738200</v>
+      </c>
+      <c r="F8" s="3">
         <v>772300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>873700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>853800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>881700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>925400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>959700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>878800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>820700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>856900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>869200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>813500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>758100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>529800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>543400</v>
+      </c>
+      <c r="F9" s="3">
         <v>566000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>638800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>618400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>641400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>681800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>711400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>643200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>601200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>628700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>639300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>595500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>563300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>194800</v>
+      </c>
+      <c r="F10" s="3">
         <v>206300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>234900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>235400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>240300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>243600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>248300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>235600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>219500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>228200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>229900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>218000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>194800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F14" s="3">
         <v>7500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-28900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>664200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>676500</v>
+      </c>
+      <c r="F17" s="3">
         <v>699500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>777700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>733200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>791900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>856000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>860100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>790600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>742400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>762900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>786200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>738700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>688000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F18" s="3">
         <v>72800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>96000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>120600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>89800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>69400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>99600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>88200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>78300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>83000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>74800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>70100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>1700</v>
-      </c>
       <c r="F20" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>108800</v>
+        <v>104800</v>
       </c>
       <c r="E21" s="3">
-        <v>129900</v>
+        <v>97900</v>
       </c>
       <c r="F21" s="3">
-        <v>156600</v>
+        <v>108100</v>
       </c>
       <c r="G21" s="3">
-        <v>126100</v>
+        <v>129400</v>
       </c>
       <c r="H21" s="3">
-        <v>106000</v>
+        <v>155900</v>
       </c>
       <c r="I21" s="3">
+        <v>125700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K21" s="3">
         <v>135500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>122800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>112900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>128400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>117300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>109100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>108900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14200</v>
+        <v>11600</v>
       </c>
       <c r="E22" s="3">
-        <v>13900</v>
+        <v>12500</v>
       </c>
       <c r="F22" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I22" s="3">
         <v>14300</v>
       </c>
-      <c r="G22" s="3">
-        <v>14700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>13500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>13300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>13400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F23" s="3">
         <v>60700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>83800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>108000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>75300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>85600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>75000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>65300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>81200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>69300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>61400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>56700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F24" s="3">
         <v>9900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>21200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>41700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>18300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F26" s="3">
         <v>50800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>67400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>86800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>33600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>52700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>67300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>59300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>51600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>63600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>54300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>47100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F27" s="3">
         <v>49700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>66600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>85900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>32700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>51300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>65900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>58400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>50500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>62200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>53000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>46300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>45600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>22900</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>22900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>1000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>1000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F33" s="3">
         <v>49700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>66600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>85900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>55600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>51300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>65900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>58400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>62200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>53000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>46300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>45600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F35" s="3">
         <v>49700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>66600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>85900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>55600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>51300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>65900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>58400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>62200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>53000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>46300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>45600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,272 +2138,310 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>604500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>331400</v>
+      </c>
+      <c r="F41" s="3">
         <v>293000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>291300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>264300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>248600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>184400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>175600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>169900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>139600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>186600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>243700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>262300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>284500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>12700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>9600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>9600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>461400</v>
+      </c>
+      <c r="F43" s="3">
         <v>491700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>547800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>545900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>551900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>582900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>607700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>562800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>506300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>527300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>544500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>509000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>462200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>655300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>678400</v>
+      </c>
+      <c r="F44" s="3">
         <v>725700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>765300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>803800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>767200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>791000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>785300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>778300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>757100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>734900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>698200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>687900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>660800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>127700</v>
+      </c>
+      <c r="F45" s="3">
         <v>151800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>190200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>209800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>244000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>162000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>148600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>154500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>159700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>171800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>149700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>148800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>120600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1834400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1607700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1667900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1802900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1836500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1817700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1729900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1724300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1686100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1574400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1630200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1643100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1615400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1532000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>676000</v>
+      </c>
+      <c r="F48" s="3">
         <v>685100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>701900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>697600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>615500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>644500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>650200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>629800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>623000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>633700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>637300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>633200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>627500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2046800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2068500</v>
+      </c>
+      <c r="F49" s="3">
         <v>2073900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2101400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2113500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2134700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2177500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2211700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2144400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2147600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2157600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2161300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2156900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2164900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F52" s="3">
         <v>51400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>54100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>58300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>55900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>49400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>48500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>43200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>42500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>41300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>38900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>34100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4585900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4430700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4478300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4660300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4705900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4623800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4601300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4634700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4507200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4388200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4464000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4483000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4444400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4358500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F57" s="3">
         <v>362300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>416700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>429600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>424800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>415300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>438600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>423500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>384300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>417200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>406500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>393800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>334200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,216 +2942,246 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>101200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>100600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>222900</v>
+      </c>
+      <c r="F59" s="3">
         <v>226300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>228000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>244800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>258200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>245800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>229000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>188900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>226500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>217100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>225600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>219800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>266800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>580300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>560500</v>
+      </c>
+      <c r="F60" s="3">
         <v>589200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>645300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>676500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>683500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>661700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>768100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>713200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>712000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>734900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>732800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>714000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>701600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1364300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1136900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1222700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1213200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1306600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1278300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1235100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1081500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1039900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1113800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1199500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1269100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1310900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>352900</v>
+      </c>
+      <c r="F62" s="3">
         <v>359700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>361900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>372200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>295200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>301800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>290800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>292300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>281600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>312900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>301900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>287500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>267800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2315300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2079600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2177000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2259300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2291000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2313300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2268800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2324700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2118100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2062700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2194900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2277200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2311800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2319700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1903800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1886700</v>
+      </c>
+      <c r="F72" s="3">
         <v>1870900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1882700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1851800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1777900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1742300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1704400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1655100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1611600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1571500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1525000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1487500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1452000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2270600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2351100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2301300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2401000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2414900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2310500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2332500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2310000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2389100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2325500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2269100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2205800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2132600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2038800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F81" s="3">
         <v>49700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>66600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>85900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>55600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>51300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>65900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>58400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>62200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>53000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>46300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>45600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F83" s="3">
         <v>33900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>32200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>34300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>36100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>35300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>36200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>34800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>34100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>34400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>34400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>38800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>137300</v>
+      </c>
+      <c r="F89" s="3">
         <v>140600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>112300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>112400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>106000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>101800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>42500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>56900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>86100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>98400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>50500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>111200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-20200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-18700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>99200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-182600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-15500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-12000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-12000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-12100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11500</v>
       </c>
       <c r="K96" s="3">
         <v>-11400</v>
       </c>
       <c r="L96" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-10800</v>
       </c>
       <c r="P96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-131500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-66300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-106000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-33900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-80200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>94300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-91700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-134400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-104200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-60300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-111000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-7700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1300</v>
       </c>
       <c r="M101" s="3">
         <v>3600</v>
       </c>
       <c r="N101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-7200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>64200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-47000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-18600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-22200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>634100</v>
+      </c>
+      <c r="E8" s="3">
         <v>734200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>738200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>772300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>873700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>853800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>881700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>925400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>959700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>878800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>820700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>856900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>869200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>813500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>758100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>462600</v>
+      </c>
+      <c r="E9" s="3">
         <v>529800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>543400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>566000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>638800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>618400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>641400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>681800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>711400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>643200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>601200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>628700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>639300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>595500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>563300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E10" s="3">
         <v>204400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>194800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>206300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>234900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>235400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>240300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>243600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>248300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>219500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>228200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>194800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-28900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1600</v>
       </c>
       <c r="N14" s="3">
         <v>1600</v>
       </c>
       <c r="O14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P14" s="3">
         <v>7700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>588200</v>
+      </c>
+      <c r="E17" s="3">
         <v>664200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>676500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>699500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>777700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>733200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>791900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>856000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>860100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>790600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>742400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>762900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>786200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>738700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>688000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E18" s="3">
         <v>70000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>72800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>120600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>89800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>69400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E21" s="3">
         <v>104800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>129400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>155900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>105300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>135500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E22" s="3">
         <v>11600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>13700</v>
       </c>
       <c r="K22" s="3">
         <v>13700</v>
       </c>
       <c r="L22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>60600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>83800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>75300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E24" s="3">
         <v>13900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E26" s="3">
         <v>46700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>86800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>45800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>66600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>85900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>22900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>45800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>66600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>45800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>66600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,308 +2226,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E41" s="3">
         <v>604500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>331400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>293000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>291300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>264300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>248600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>175600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>186600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>262300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>284500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E43" s="3">
         <v>464000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>461400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>491700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>547800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>545900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>551900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>582900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>607700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>506300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>527300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>544500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>509000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>462200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>679700</v>
+      </c>
+      <c r="E44" s="3">
         <v>655300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>678400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>725700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>765300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>803800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>767200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>791000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>785300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>778300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>757100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>734900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>698200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>687900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>660800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E45" s="3">
         <v>108900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>127700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>151800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>190200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>209800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>244000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>162000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>148600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>154500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>159700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>149700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>148800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1675700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1834400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1607700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1667900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1802900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1836500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1817700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1729900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1724300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1686100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1574400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1630200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1643100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1615400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1532000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>634300</v>
+      </c>
+      <c r="E48" s="3">
         <v>641700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>676000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>685100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>701900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>697600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>615500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>644500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>650200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>629800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>623000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>633700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>637300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>633200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>627500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2041200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2046800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2068500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2073900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2101400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2113500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2134700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2177500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2211700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2144400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2147600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2157600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2161300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2156900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2164900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E52" s="3">
         <v>63000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>34100</v>
       </c>
       <c r="R52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4408100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4585900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4430700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4478300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4660300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4705900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4623800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4601300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4634700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4507200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4388200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4464000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4483000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4444400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4358500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E57" s="3">
         <v>340300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>337000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>362300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>416700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>429600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>424800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>415300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>438600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>423500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>384300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>417200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>406500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>393800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>334200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,240 +3082,255 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>101200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E59" s="3">
         <v>239400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>222900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>226300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>228000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>244800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>258200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>245800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>229000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>188900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>226500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>217100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>225600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>219800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>266800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>578400</v>
+      </c>
+      <c r="E60" s="3">
         <v>580300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>560500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>589200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>645300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>676500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>683500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>661700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>768100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>713200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>712000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>734900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>732800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>714000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>701600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1364300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1136900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1222700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1213200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1306600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1278300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1235100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1081500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1039900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1113800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1199500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1310900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>357600</v>
+      </c>
+      <c r="E62" s="3">
         <v>341200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>352900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>359700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>361900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>372200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>295200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>301800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>290800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>292300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>281600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>312900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>301900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>287500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>267800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2089000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2315300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2079600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2177000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2259300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2291000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2313300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2268800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2324700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2118100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2062700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2194900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2277200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2311800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2319700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1919700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1903800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1886700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1870900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1882700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1851800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1777900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1742300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1704400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1655100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1611600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1571500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1525000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1487500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1452000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2319100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2270600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2351100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2301300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2401000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2414900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2310500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2332500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2310000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2389100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2325500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2269100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2205800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2132600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2038800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>45800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>66600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E83" s="3">
         <v>32600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>34400</v>
       </c>
       <c r="P83" s="3">
         <v>34400</v>
       </c>
       <c r="Q83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="R83" s="3">
         <v>38800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E89" s="3">
         <v>102700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>140600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>112300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>106000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>98400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>99200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-182600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,49 +4848,50 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-12000</v>
       </c>
       <c r="H96" s="3">
         <v>-12000</v>
       </c>
       <c r="I96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-12100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-10800</v>
       </c>
       <c r="Q96" s="3">
         <v>-10800</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-255500</v>
+      </c>
+      <c r="E100" s="3">
         <v>188700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-93600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-131500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-66300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-80200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>94300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-134400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-111000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-172300</v>
+      </c>
+      <c r="E102" s="3">
         <v>273100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>758200</v>
+      </c>
+      <c r="E8" s="3">
         <v>634100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>734200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>738200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>772300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>873700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>853800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>881700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>925400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>959700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>878800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>820700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>856900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>869200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>813500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>758100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>462600</v>
+        <v>532600</v>
       </c>
       <c r="E9" s="3">
-        <v>529800</v>
+        <v>459000</v>
       </c>
       <c r="F9" s="3">
+        <v>526600</v>
+      </c>
+      <c r="G9" s="3">
         <v>543400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>566000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>638800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>618400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>641400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>681800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>711400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>643200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>601200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>628700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>639300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>595500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>563300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>171500</v>
+        <v>225600</v>
       </c>
       <c r="E10" s="3">
-        <v>204400</v>
+        <v>175100</v>
       </c>
       <c r="F10" s="3">
+        <v>207600</v>
+      </c>
+      <c r="G10" s="3">
         <v>194800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>206300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>234900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>235400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>240300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>243600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>248300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>235600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>219500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>228200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>229900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>218000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>194800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>10600</v>
       </c>
       <c r="F14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-28900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1600</v>
       </c>
       <c r="O14" s="3">
         <v>1600</v>
       </c>
       <c r="P14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>668200</v>
+      </c>
+      <c r="E17" s="3">
         <v>588200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>664200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>676500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>699500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>777700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>733200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>791900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>856000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>860100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>790600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>742400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>762900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>786200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>738700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>688000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E18" s="3">
         <v>45900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>70000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>72800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>120600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>89800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E21" s="3">
         <v>81700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>104800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>108100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>155900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>135500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>109100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>13700</v>
       </c>
       <c r="L22" s="3">
         <v>13700</v>
       </c>
       <c r="M22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E23" s="3">
         <v>37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>83800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E24" s="3">
         <v>8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E26" s="3">
         <v>29300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>86800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>66600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>62200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>45600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>22900</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>66600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>55600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>62200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>66600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>55600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>62200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,326 +2313,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>487500</v>
+      </c>
+      <c r="E41" s="3">
         <v>432200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>604500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>331400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>293000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>291300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>264300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>248600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>139600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>186600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>243700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>262300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>284500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>472500</v>
+      </c>
+      <c r="E43" s="3">
         <v>427200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>464000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>461400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>491700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>547800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>545900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>551900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>582900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>607700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>562800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>506300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>527300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>544500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>509000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>462200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>677200</v>
+      </c>
+      <c r="E44" s="3">
         <v>679700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>655300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>678400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>725700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>765300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>803800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>767200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>791000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>785300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>778300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>757100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>734900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>698200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>687900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>660800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E45" s="3">
         <v>136600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>108900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>127700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>151800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>190200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>209800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>244000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>148600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>154500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>159700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>171800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>149700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>148800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1752600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1675700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1834400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1607700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1667900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1802900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1836500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1817700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1729900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1724300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1686100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1574400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1630200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1643100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1615400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1532000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>624100</v>
+      </c>
+      <c r="E48" s="3">
         <v>634300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>641700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>676000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>685100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>701900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>697600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>615500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>644500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>650200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>629800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>623000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>633700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>637300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>633200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>627500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2043800</v>
+      </c>
+      <c r="E49" s="3">
         <v>2041200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2046800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2068500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2073900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2101400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2113500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2134700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2177500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2211700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2144400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2147600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2157600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2161300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2156900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2164900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E52" s="3">
         <v>56900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>34100</v>
       </c>
       <c r="S52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4479400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4408100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4585900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4430700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4478300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4660300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4705900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4623800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4601300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4634700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4507200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4388200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4464000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4483000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4444400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4358500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3141,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>363800</v>
+      </c>
+      <c r="E57" s="3">
         <v>342600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>340300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>337000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>362300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>416700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>429600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>424800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>415300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>438600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>423500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>384300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>417200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>406500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>393800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>334200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>230600</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3085,252 +3219,267 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>101200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E59" s="3">
         <v>235200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>239400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>222900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>226300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>228000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>244800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>258200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>245800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>229000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>188900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>226500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>217100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>225600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>219800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>266800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>830800</v>
+      </c>
+      <c r="E60" s="3">
         <v>578400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>580300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>560500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>589200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>645300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>676500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>683500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>661700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>768100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>713200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>712000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>734900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>732800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>714000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>701600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>840200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1125100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1364300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1136900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1222700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1213200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1306600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1278300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1235100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1081500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1039900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1113800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1199500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1269100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1310900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>356500</v>
+      </c>
+      <c r="E62" s="3">
         <v>357600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>341200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>352900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>359700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>361900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>372200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>295200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>301800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>290800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>292300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>281600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>312900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>301900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>287500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>267800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2089000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2315300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2079600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2177000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2259300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2291000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2313300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2268800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2324700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2118100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2062700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2194900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2277200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2311800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2319700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1972500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1919700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1903800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1886700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1870900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1882700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1851800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1777900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1742300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1704400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1655100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1611600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1571500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1487500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1452000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2421900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2319100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2270600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2351100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2301300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2401000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2414900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2310500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2332500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2310000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2389100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2325500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2269100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2205800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2132600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2038800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>66600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>55600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>62200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E83" s="3">
         <v>33300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>34400</v>
       </c>
       <c r="Q83" s="3">
         <v>34400</v>
       </c>
       <c r="R83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="S83" s="3">
         <v>38800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E89" s="3">
         <v>86900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>102700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>137300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>112300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>106000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>98400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>99200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-182600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,52 +5082,53 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-12000</v>
       </c>
       <c r="I96" s="3">
         <v>-12000</v>
       </c>
       <c r="J96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-10800</v>
       </c>
       <c r="R96" s="3">
         <v>-10800</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-255500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>188700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-93600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-131500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-66300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>94300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-91700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-134400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-111000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E101" s="3">
         <v>3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-172300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>273100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>780500</v>
+      </c>
+      <c r="E8" s="3">
         <v>758200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>634100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>734200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>738200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>772300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>873700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>853800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>881700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>925400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>959700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>878800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>820700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>856900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>869200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>813500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>758100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>561900</v>
+      </c>
+      <c r="E9" s="3">
         <v>532600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>459000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>526600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>543400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>566000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>638800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>618400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>641400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>681800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>711400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>643200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>601200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>628700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>639300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>595500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>563300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E10" s="3">
         <v>225600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>175100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>207600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>194800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>206300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>234900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>235400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>243600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>248300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>235600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>219500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>228200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>229900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>218000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>194800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-28900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1600</v>
       </c>
       <c r="P14" s="3">
         <v>1600</v>
       </c>
       <c r="Q14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R14" s="3">
         <v>7700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>706300</v>
+      </c>
+      <c r="E17" s="3">
         <v>668200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>588200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>664200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>676500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>699500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>777700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>733200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>791900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>856000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>860100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>790600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>742400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>762900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>786200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>738700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>688000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E18" s="3">
         <v>90000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>61700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>72800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>120600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E21" s="3">
         <v>125300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>104800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>97900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>108100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>129400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>155900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>135500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>128400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>109100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>13700</v>
       </c>
       <c r="M22" s="3">
         <v>13700</v>
       </c>
       <c r="N22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E23" s="3">
         <v>83400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>17100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E26" s="3">
         <v>66300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>86800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E27" s="3">
         <v>65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>66600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>85900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>22900</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>1000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E33" s="3">
         <v>65000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>66600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>85900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E35" s="3">
         <v>65000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>66600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>85900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>611300</v>
+      </c>
+      <c r="E41" s="3">
         <v>487500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>432200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>604500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>331400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>293000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>291300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>264300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>248600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>175600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>186600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>262300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>284500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2381,277 +2471,292 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E43" s="3">
         <v>472500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>427200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>464000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>461400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>491700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>547800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>545900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>551900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>582900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>607700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>562800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>506300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>527300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>544500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>509000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>462200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>690300</v>
+      </c>
+      <c r="E44" s="3">
         <v>677200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>679700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>655300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>678400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>725700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>765300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>803800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>767200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>791000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>785300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>778300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>757100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>734900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>698200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>687900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>660800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E45" s="3">
         <v>115400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>108900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>127700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>151800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>190200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>209800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>244000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>148600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>154500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>159700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>149700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>148800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1851300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1752600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1675700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1834400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1607700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1667900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1802900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1836500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1817700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1729900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1724300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1686100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1574400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1630200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1643100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1615400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1532000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>628900</v>
+      </c>
+      <c r="E48" s="3">
         <v>624100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>634300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>641700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>676000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>685100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>701900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>697600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>615500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>644500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>650200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>629800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>623000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>633700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>637300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>633200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>627500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2048500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2043800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2041200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2046800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2068500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2073900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2101400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2113500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2134700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2177500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2211700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2144400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2147600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2157600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2161300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2156900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2164900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E52" s="3">
         <v>58900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>34100</v>
       </c>
       <c r="T52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4479400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4408100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4585900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4430700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4478300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4660300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4705900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4623800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4601300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4634700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4507200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4388200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4464000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4483000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4444400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4358500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,72 +3272,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>360100</v>
+      </c>
+      <c r="E57" s="3">
         <v>363800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>342600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>340300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>337000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>362300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>416700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>429600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>424800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>415300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>438600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>423500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>384300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>417200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>406500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>393800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>334200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E58" s="3">
         <v>230600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3222,264 +3356,279 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>101200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E59" s="3">
         <v>236400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>235200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>239400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>222900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>226300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>228000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>244800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>258200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>245800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>229000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>188900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>226500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>217100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>225600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>219800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>266800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>822000</v>
+      </c>
+      <c r="E60" s="3">
         <v>830800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>578400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>580300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>560500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>589200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>645300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>676500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>683500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>661700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>768100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>713200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>712000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>734900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>732800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>714000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>701600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E61" s="3">
         <v>840200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1125100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1364300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1136900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1222700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1213200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1306600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1278300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1235100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1081500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1039900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1113800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1199500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1269100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1310900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>349600</v>
+      </c>
+      <c r="E62" s="3">
         <v>356500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>357600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>341200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>352900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>359700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>361900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>372200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>295200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>301800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>290800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>292300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>281600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>312900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>301900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>287500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>267800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2044600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2057500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2089000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2315300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2079600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2177000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2259300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2291000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2313300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2268800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2324700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2118100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2062700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2194900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2277200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2311800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2319700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2010700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1972500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1919700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1903800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1886700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1870900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1882700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1851800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1777900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1742300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1704400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1655100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1611600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1571500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1525000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1487500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1452000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2544400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2421900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2319100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2270600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2351100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2301300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2401000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2414900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2310500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2332500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2310000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2389100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2325500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2269100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2205800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2132600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2038800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E81" s="3">
         <v>65000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>66600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>85900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E83" s="3">
         <v>32900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>34400</v>
       </c>
       <c r="R83" s="3">
         <v>34400</v>
       </c>
       <c r="S83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="T83" s="3">
         <v>38800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E89" s="3">
         <v>120300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>102700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>137300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>112400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>98400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>111200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>99200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-182600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,46 +5326,46 @@
         <v>-12200</v>
       </c>
       <c r="E96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-12000</v>
       </c>
       <c r="J96" s="3">
         <v>-12000</v>
       </c>
       <c r="K96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-10800</v>
       </c>
       <c r="S96" s="3">
         <v>-10800</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-255500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>188700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-93600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-131500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-66300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-80200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>94300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-91700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-111000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E101" s="3">
         <v>10400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E102" s="3">
         <v>55300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-172300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>273100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>814100</v>
+      </c>
+      <c r="E8" s="3">
         <v>780500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>758200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>634100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>734200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>738200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>772300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>873700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>853800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>881700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>925400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>959700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>878800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>820700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>856900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>869200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>813500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>758100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>567600</v>
+      </c>
+      <c r="E9" s="3">
         <v>561900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>532600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>459000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>526600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>543400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>566000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>638800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>618400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>641400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>681800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>711400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>643200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>601200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>628700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>639300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>595500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>563300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E10" s="3">
         <v>218600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>225600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>175100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>207600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>194800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>206300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>234900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>235400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>240300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>243600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>248300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>235600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>219500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>228200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>229900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>218000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>194800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>19400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-28900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1600</v>
       </c>
       <c r="Q14" s="3">
         <v>1600</v>
       </c>
       <c r="R14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S14" s="3">
         <v>7700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E17" s="3">
         <v>706300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>668200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>588200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>664200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>676500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>699500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>777700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>733200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>791900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>856000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>860100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>790600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>742400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>762900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>786200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>738700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>688000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E18" s="3">
         <v>74200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>90000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>61700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>72800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>89800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>69400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E21" s="3">
         <v>110000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>104800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>97900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>108100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>129400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>135500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>128400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>109100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>108900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E22" s="3">
         <v>8600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>13700</v>
       </c>
       <c r="N22" s="3">
         <v>13700</v>
       </c>
       <c r="O22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E23" s="3">
         <v>68800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>60700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>83800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>108000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>81200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E24" s="3">
         <v>17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E26" s="3">
         <v>51500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>51600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>54300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E27" s="3">
         <v>50400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>66600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>22900</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E33" s="3">
         <v>50400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>66600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>62200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E35" s="3">
         <v>50400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>66600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>62200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>566400</v>
+      </c>
+      <c r="E41" s="3">
         <v>611300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>487500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>432200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>604500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>331400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>293000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>291300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>264300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>248600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>175600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>139600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>186600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>262300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>284500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2474,289 +2563,304 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>483900</v>
+      </c>
+      <c r="E43" s="3">
         <v>432000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>472500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>427200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>464000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>461400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>491700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>547800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>545900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>551900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>582900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>607700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>562800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>506300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>527300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>544500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>509000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>462200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>722200</v>
+      </c>
+      <c r="E44" s="3">
         <v>690300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>677200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>679700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>655300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>678400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>725700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>765300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>803800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>767200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>791000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>785300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>778300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>757100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>734900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>698200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>687900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>660800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E45" s="3">
         <v>117700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>115400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>151800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>190200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>209800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>244000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>162000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>148600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>154500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>159700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>149700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>148800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1926400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1851300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1752600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1675700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1834400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1607700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1667900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1802900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1836500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1817700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1729900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1724300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1686100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1574400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1630200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1643100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1615400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1532000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>614500</v>
+      </c>
+      <c r="E48" s="3">
         <v>628900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>624100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>634300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>641700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>676000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>685100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>701900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>697600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>615500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>644500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>650200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>629800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>623000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>633700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>637300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>633200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>627500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2024200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2048500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2043800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2041200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2046800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2068500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2073900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2101400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2113500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2134700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2177500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2211700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2144400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2147600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2157600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2161300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2156900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2164900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E52" s="3">
         <v>60300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>46900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>42500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>34100</v>
       </c>
       <c r="U52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4627200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4589000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4479400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4408100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4585900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4430700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4478300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4660300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4705900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4623800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4601300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4634700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4507200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4388200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4464000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4483000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4444400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4358500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,78 +3402,82 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E57" s="3">
         <v>360100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>363800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>342600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>340300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>337000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>362300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>416700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>429600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>424800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>415300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>438600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>423500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>384300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>417200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>406500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>393800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>334200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E58" s="3">
         <v>231000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>230600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3359,276 +3492,291 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>101200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E59" s="3">
         <v>230900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>236400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>235200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>239400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>222900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>226300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>228000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>258200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>245800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>229000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>226500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>217100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>225600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>219800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>266800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E60" s="3">
         <v>822000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>830800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>578400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>580300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>560500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>589200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>645300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>676500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>683500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>661700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>768100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>713200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>712000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>734900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>732800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>714000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>701600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>786900</v>
+      </c>
+      <c r="E61" s="3">
         <v>840400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>840200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1125100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1364300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1136900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1222700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1213200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1306600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1278300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1235100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1081500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1039900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1113800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1199500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1269100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1310900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E62" s="3">
         <v>349600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>356500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>357600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>341200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>352900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>359700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>361900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>372200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>295200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>301800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>290800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>292300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>281600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>312900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>301900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>287500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>267800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2043100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2044600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2057500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2089000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2315300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2079600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2177000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2259300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2291000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2313300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2268800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2324700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2118100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2062700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2194900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2277200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2311800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2319700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2064100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2010700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1972500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1919700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1903800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1886700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1870900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1882700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1851800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1777900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1742300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1704400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1655100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1611600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1571500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1525000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1487500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1452000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2584100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2544400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2421900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2319100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2270600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2351100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2301300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2401000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2414900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2310500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2332500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2310000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2389100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2325500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2269100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2205800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2132600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2038800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E81" s="3">
         <v>50400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>66600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>62200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E83" s="3">
         <v>32600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>34400</v>
       </c>
       <c r="S83" s="3">
         <v>34400</v>
       </c>
       <c r="T83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="U83" s="3">
         <v>38800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E89" s="3">
         <v>125500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>120300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>102700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>112400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>98400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>111200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>99200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-182600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,46 +5562,46 @@
         <v>-12200</v>
       </c>
       <c r="F96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-12100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-12000</v>
       </c>
       <c r="K96" s="3">
         <v>-12000</v>
       </c>
       <c r="L96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-10800</v>
       </c>
       <c r="T96" s="3">
         <v>-10800</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-255500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>188700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-93600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-131500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-66300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>94300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-134400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-104200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-111000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>25900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E102" s="3">
         <v>123800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-172300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>273100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>886900</v>
+      </c>
+      <c r="E8" s="3">
         <v>814100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>780500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>758200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>634100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>734200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>738200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>772300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>873700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>853800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>881700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>925400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>959700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>878800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>820700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>856900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>869200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>813500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>758100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>634200</v>
+      </c>
+      <c r="E9" s="3">
         <v>567600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>561900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>532600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>459000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>526600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>543400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>566000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>638800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>618400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>641400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>681800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>711400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>643200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>601200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>628700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>639300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>595500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>563300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E10" s="3">
         <v>246500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>218600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>225600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>175100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>207600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>194800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>206300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>240300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>243600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>248300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>235600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>219500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>228200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>229900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>194800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1103,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-28900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1600</v>
       </c>
       <c r="R14" s="3">
         <v>1600</v>
       </c>
       <c r="S14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T14" s="3">
         <v>7700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>777900</v>
+      </c>
+      <c r="E17" s="3">
         <v>717000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>706300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>668200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>588200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>664200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>676500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>699500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>777700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>733200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>791900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>856000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>860100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>790600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>742400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>762900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>786200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>738700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>688000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E18" s="3">
         <v>97100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>90000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>70000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>72800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>120600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>89800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>69400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>83000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E21" s="3">
         <v>131600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>110000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>81700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>104800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>97900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>108100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>135500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>109100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>13700</v>
       </c>
       <c r="O22" s="3">
         <v>13700</v>
       </c>
       <c r="P22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E23" s="3">
         <v>87200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>75000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>65300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>81200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E24" s="3">
         <v>20200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E26" s="3">
         <v>67000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>52700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>54300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E27" s="3">
         <v>65600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>45800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>62200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,11 +2030,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>22900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2042,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E33" s="3">
         <v>65600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>62200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E35" s="3">
         <v>65600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>62200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>618500</v>
+      </c>
+      <c r="E41" s="3">
         <v>566400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>611300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>487500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>432200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>604500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>331400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>293000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>291300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>264300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>248600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>184400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>175600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>139600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>186600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>243700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>262300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>284500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2566,301 +2655,316 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E43" s="3">
         <v>483900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>432000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>472500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>427200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>464000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>461400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>491700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>547800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>545900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>551900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>582900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>607700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>562800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>506300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>527300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>544500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>509000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>462200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>759200</v>
+      </c>
+      <c r="E44" s="3">
         <v>722200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>690300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>677200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>679700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>655300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>678400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>725700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>803800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>767200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>791000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>785300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>778300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>757100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>734900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>698200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>687900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>660800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E45" s="3">
         <v>153900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>117700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>115400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>108900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>127700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>151800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>190200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>209800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>244000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>162000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>148600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>154500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>159700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>149700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>148800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2084200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1926400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1851300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1752600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1675700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1834400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1607700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1667900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1802900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1836500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1817700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1729900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1724300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1686100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1574400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1630200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1643100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1615400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1532000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>605900</v>
+      </c>
+      <c r="E48" s="3">
         <v>614500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>628900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>624100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>634300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>641700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>676000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>685100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>701900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>697600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>615500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>644500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>650200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>629800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>623000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>633700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>637300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>633200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>627500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2016700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2024200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2048500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2043800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2041200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2046800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2068500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2073900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2101400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2113500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2134700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2177500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2211700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2144400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2147600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2157600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2161300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2156900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2164900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E52" s="3">
         <v>62100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>34100</v>
       </c>
       <c r="V52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4773700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4627200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4589000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4479400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4408100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4585900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4430700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4478300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4660300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4705900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4623800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4601300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4634700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4507200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4388200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4464000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4483000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4444400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4358500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,84 +3532,88 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>461400</v>
+      </c>
+      <c r="E57" s="3">
         <v>412300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>360100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>363800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>342600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>340300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>337000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>362300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>416700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>429600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>424800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>415300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>438600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>423500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>384300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>417200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>406500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>393800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>334200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E58" s="3">
         <v>230800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>231000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>230600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3495,288 +3628,303 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>101200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E59" s="3">
         <v>227900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>230900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>236400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>235200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>239400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>222900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>226300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>228000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>258200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>245800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>229000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>188900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>226500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>217100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>225600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>219800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>266800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>938800</v>
+      </c>
+      <c r="E60" s="3">
         <v>871000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>822000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>830800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>578400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>580300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>560500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>589200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>645300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>676500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>683500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>661700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>768100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>713200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>712000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>734900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>732800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>714000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>701600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E61" s="3">
         <v>786900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>840400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>840200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1125100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1364300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1136900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1222700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1213200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1306600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1278300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1235100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1081500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1039900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1113800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1199500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1269100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1310900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>349400</v>
+      </c>
+      <c r="E62" s="3">
         <v>351500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>349600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>356500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>357600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>341200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>352900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>359700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>361900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>372200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>295200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>301800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>290800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>292300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>281600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>312900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>301900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>287500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>267800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2108700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2043100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2044600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2057500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2089000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2315300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2079600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2177000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2259300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2291000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2313300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2268800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2324700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2118100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2062700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2194900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2277200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2311800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2319700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2130300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2064100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2010700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1972500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1919700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1903800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1886700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1870900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1882700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1851800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1777900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1742300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1704400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1655100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1611600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1571500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1525000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1487500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1452000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2665000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2584100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2544400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2421900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2319100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2270600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2351100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2301300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2401000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2414900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2310500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2332500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2310000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2389100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2325500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2269100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2205800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2132600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2038800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E81" s="3">
         <v>65600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>62200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E83" s="3">
         <v>31800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>34400</v>
       </c>
       <c r="T83" s="3">
         <v>34400</v>
       </c>
       <c r="U83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="V83" s="3">
         <v>38800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E89" s="3">
         <v>49500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>125500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>120300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>137300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>112300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>101800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>98400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>111200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>99200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-182600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5565,46 +5798,46 @@
         <v>-12200</v>
       </c>
       <c r="G96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-12100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12000</v>
       </c>
       <c r="L96" s="3">
         <v>-12000</v>
       </c>
       <c r="M96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-10800</v>
       </c>
       <c r="U96" s="3">
         <v>-10800</v>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-255500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>188700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-93600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-131500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-80200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>94300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-91700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-134400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-111000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>25900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-172300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>273100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-47000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,10 +665,9 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -676,283 +675,334 @@
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
-        <v>44198</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>886900</v>
+        <v>354100</v>
       </c>
       <c r="E8" s="3">
-        <v>814100</v>
+        <v>358900</v>
       </c>
       <c r="F8" s="3">
-        <v>780500</v>
+        <v>267000</v>
       </c>
       <c r="G8" s="3">
+        <v>160900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>156200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K8" s="3">
         <v>758200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>634100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>734200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>738200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>772300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>873700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>853800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>881700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>925400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>959700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>878800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>820700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="W8" s="3">
         <v>856900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
         <v>869200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="Y8" s="3">
         <v>813500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Z8" s="3">
         <v>758100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="AA8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>634200</v>
+        <v>212900</v>
       </c>
       <c r="E9" s="3">
-        <v>567600</v>
+        <v>221400</v>
       </c>
       <c r="F9" s="3">
-        <v>561900</v>
+        <v>173600</v>
       </c>
       <c r="G9" s="3">
+        <v>98400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>92400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>97800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K9" s="3">
         <v>532600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>459000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>526600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>543400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>566000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>638800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>618400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>641400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>681800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>711400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>643200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="V9" s="3">
         <v>601200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="W9" s="3">
         <v>628700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
         <v>639300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="3">
         <v>595500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Z9" s="3">
         <v>563300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="AA9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>252700</v>
+        <v>141200</v>
       </c>
       <c r="E10" s="3">
-        <v>246500</v>
+        <v>137500</v>
       </c>
       <c r="F10" s="3">
-        <v>218600</v>
+        <v>93400</v>
       </c>
       <c r="G10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K10" s="3">
         <v>225600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>175100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>207600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>194800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>206300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>234900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>235400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>240300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>243600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>248300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>235600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="V10" s="3">
         <v>219500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="W10" s="3">
         <v>228200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="X10" s="3">
         <v>229900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="Y10" s="3">
         <v>218000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Z10" s="3">
         <v>194800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="AA10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +1026,12 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1095,20 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1172,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,87 +1193,99 @@
         <v>3800</v>
       </c>
       <c r="E14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S14" s="3">
+        <v>20500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>19400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>20500</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="X14" s="3">
         <v>7700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="Y14" s="3">
         <v>3200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1236,8 +1326,20 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1360,166 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>777900</v>
+        <v>289600</v>
       </c>
       <c r="E17" s="3">
-        <v>717000</v>
+        <v>301000</v>
       </c>
       <c r="F17" s="3">
-        <v>706300</v>
+        <v>252600</v>
       </c>
       <c r="G17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>126900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>130600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>119300</v>
+      </c>
+      <c r="K17" s="3">
         <v>668200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>588200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>664200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>676500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>699500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>777700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>733200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>791900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>856000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>860100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>790600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="V17" s="3">
         <v>742400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="W17" s="3">
         <v>762900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>786200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="3">
         <v>738700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Z17" s="3">
         <v>688000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="AA17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109000</v>
+        <v>64500</v>
       </c>
       <c r="E18" s="3">
-        <v>97100</v>
+        <v>57900</v>
       </c>
       <c r="F18" s="3">
-        <v>74200</v>
+        <v>14400</v>
       </c>
       <c r="G18" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K18" s="3">
         <v>90000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>45900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>70000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>61700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>72800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>96000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>120600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>89800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>69400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>99600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>88200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <v>78300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
         <v>94000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
         <v>83000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="Y18" s="3">
         <v>74800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Z18" s="3">
         <v>70100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="AA18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,333 +1543,397 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>-16600</v>
       </c>
       <c r="E20" s="3">
-        <v>2700</v>
+        <v>-13800</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>-13300</v>
       </c>
       <c r="G20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>142400</v>
+        <v>76500</v>
       </c>
       <c r="E21" s="3">
-        <v>131600</v>
+        <v>72300</v>
       </c>
       <c r="F21" s="3">
-        <v>110000</v>
+        <v>21600</v>
       </c>
       <c r="G21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K21" s="3">
         <v>125300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>81700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>104800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>97900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>108100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>129400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>155900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>125700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>105300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>135500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>122800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>112900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="W21" s="3">
         <v>128400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="X21" s="3">
         <v>117300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="Y21" s="3">
         <v>109100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Z21" s="3">
         <v>108900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="AA21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>11600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>13500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>13400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>13600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>14300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>13700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>13700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="V22" s="3">
         <v>13500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="W22" s="3">
         <v>12900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="X22" s="3">
         <v>13600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="Y22" s="3">
         <v>13300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Z22" s="3">
         <v>13400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="AA22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100400</v>
+        <v>47900</v>
       </c>
       <c r="E23" s="3">
-        <v>87200</v>
+        <v>44100</v>
       </c>
       <c r="F23" s="3">
-        <v>68800</v>
+        <v>1100</v>
       </c>
       <c r="G23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>29500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K23" s="3">
         <v>83400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>60600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>51300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>60700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>83800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>108000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>75300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>56300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>85600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>75000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>65300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="W23" s="3">
         <v>81200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>69300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="Y23" s="3">
         <v>61400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Z23" s="3">
         <v>56700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="AA23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19200</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="3">
-        <v>20200</v>
+        <v>11900</v>
       </c>
       <c r="F24" s="3">
-        <v>17300</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>21200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
         <v>41700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>18300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>15700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="V24" s="3">
         <v>13700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="W24" s="3">
         <v>17600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="Y24" s="3">
         <v>13800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Z24" s="3">
         <v>9600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="AA24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1997,174 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81200</v>
+        <v>37400</v>
       </c>
       <c r="E26" s="3">
-        <v>67000</v>
+        <v>32200</v>
       </c>
       <c r="F26" s="3">
-        <v>51500</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K26" s="3">
         <v>66300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>29300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>46700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>50800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>67400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>86800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>33600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>52700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>67300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>59300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>51600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="W26" s="3">
         <v>63600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>54300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>47600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
         <v>47100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AA26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79600</v>
+        <v>31700</v>
       </c>
       <c r="E27" s="3">
-        <v>65600</v>
+        <v>26500</v>
       </c>
       <c r="F27" s="3">
-        <v>50400</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>28100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>45800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>49700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>66600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>85900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>32700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>51300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>65900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>58400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>50500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>62200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>53000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="Y27" s="3">
         <v>46300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Z27" s="3">
         <v>45600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="AA27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,16 +2228,28 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2018,8 +2260,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2033,8 +2275,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>22900</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2046,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="R29" s="3">
-        <v>1000</v>
+        <v>22900</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2057,14 +2299,26 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>1000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2382,20 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2459,174 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>16600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2700</v>
+        <v>13800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>13300</v>
       </c>
       <c r="G32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79600</v>
+        <v>31700</v>
       </c>
       <c r="E33" s="3">
-        <v>65600</v>
+        <v>26500</v>
       </c>
       <c r="F33" s="3">
-        <v>50400</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>28100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>45800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>36700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>49700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>66600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>85900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>55600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>51300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>65900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>58400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>51500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>62200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>53000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="Y33" s="3">
         <v>46300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Z33" s="3">
         <v>45600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="AA33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2690,179 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79600</v>
+        <v>31700</v>
       </c>
       <c r="E35" s="3">
-        <v>65600</v>
+        <v>26500</v>
       </c>
       <c r="F35" s="3">
-        <v>50400</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>28100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>45800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>36700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>49700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>66600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>85900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>55600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>51300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>65900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>58400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>51500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>62200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>53000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="Y35" s="3">
         <v>46300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Z35" s="3">
         <v>45600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="AA35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
-        <v>44198</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2886,12 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,421 +2915,497 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>618500</v>
+        <v>119600</v>
       </c>
       <c r="E41" s="3">
-        <v>566400</v>
+        <v>182900</v>
       </c>
       <c r="F41" s="3">
-        <v>611300</v>
+        <v>255500</v>
       </c>
       <c r="G41" s="3">
+        <v>1348600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>175800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>151100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K41" s="3">
         <v>487500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>432200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>604500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>331400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>293000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>291300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>264300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>248600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>184400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>175600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>169900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="V41" s="3">
         <v>139600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="W41" s="3">
         <v>186600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="X41" s="3">
         <v>243700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="Y41" s="3">
         <v>262300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Z41" s="3">
         <v>284500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="AA41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>120300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>8800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>5700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>8300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>12700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="R42" s="3">
         <v>6000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>9600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>7100</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>20600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>11700</v>
       </c>
       <c r="S42" s="3">
         <v>9600</v>
       </c>
       <c r="T42" s="3">
+        <v>7100</v>
+      </c>
+      <c r="U42" s="3">
+        <v>20600</v>
+      </c>
+      <c r="V42" s="3">
+        <v>11700</v>
+      </c>
+      <c r="W42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="X42" s="3">
         <v>7000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="Y42" s="3">
         <v>7400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Z42" s="3">
         <v>3900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="AA42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>558000</v>
+        <v>239900</v>
       </c>
       <c r="E43" s="3">
-        <v>483900</v>
+        <v>251400</v>
       </c>
       <c r="F43" s="3">
-        <v>432000</v>
+        <v>204300</v>
       </c>
       <c r="G43" s="3">
+        <v>116400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>112000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>116100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K43" s="3">
         <v>472500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>427200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>464000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>461400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>491700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>547800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>545900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>551900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>582900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>607700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="U43" s="3">
         <v>562800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="V43" s="3">
         <v>506300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="W43" s="3">
         <v>527300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="X43" s="3">
         <v>544500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="Y43" s="3">
         <v>509000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Z43" s="3">
         <v>462200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="AA43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>759200</v>
+        <v>542100</v>
       </c>
       <c r="E44" s="3">
-        <v>722200</v>
+        <v>516100</v>
       </c>
       <c r="F44" s="3">
-        <v>690300</v>
+        <v>510200</v>
       </c>
       <c r="G44" s="3">
+        <v>370700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>369900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>364100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>372100</v>
+      </c>
+      <c r="K44" s="3">
         <v>677200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>679700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>655300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>678400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>725700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>765300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>803800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>767200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>791000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>785300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="U44" s="3">
         <v>778300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="V44" s="3">
         <v>757100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="W44" s="3">
         <v>734900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="X44" s="3">
         <v>698200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="Y44" s="3">
         <v>687900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Z44" s="3">
         <v>660800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="AA44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148500</v>
+        <v>14600</v>
       </c>
       <c r="E45" s="3">
-        <v>153900</v>
+        <v>11900</v>
       </c>
       <c r="F45" s="3">
-        <v>117700</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K45" s="3">
         <v>115400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>136600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>108900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>127700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>151800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>190200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>209800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>244000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>162000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
         <v>148600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="U45" s="3">
         <v>154500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="V45" s="3">
         <v>159700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="W45" s="3">
         <v>171800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="X45" s="3">
         <v>149700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="Y45" s="3">
         <v>148800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Z45" s="3">
         <v>120600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="AA45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2084200</v>
+        <v>916100</v>
       </c>
       <c r="E46" s="3">
-        <v>1926400</v>
+        <v>962200</v>
       </c>
       <c r="F46" s="3">
-        <v>1851300</v>
+        <v>987200</v>
       </c>
       <c r="G46" s="3">
+        <v>1859900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>786100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>728200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>692300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1752600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>1675700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>1834400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>1607700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>1667900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>1802900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>1836500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>1817700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>1729900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>1724300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="U46" s="3">
         <v>1686100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="V46" s="3">
         <v>1574400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="W46" s="3">
         <v>1630200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="X46" s="3">
         <v>1643100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="Y46" s="3">
         <v>1615400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Z46" s="3">
         <v>1532000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="AA46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3028,138 +3446,174 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>605900</v>
+        <v>428600</v>
       </c>
       <c r="E48" s="3">
-        <v>614500</v>
+        <v>431300</v>
       </c>
       <c r="F48" s="3">
-        <v>628900</v>
+        <v>439000</v>
       </c>
       <c r="G48" s="3">
+        <v>237300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>240900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>243900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>249600</v>
+      </c>
+      <c r="K48" s="3">
         <v>624100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>634300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>641700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>676000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>685100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>701900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>697600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>615500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>644500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>650200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>629800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>623000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="W48" s="3">
         <v>633700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="X48" s="3">
         <v>637300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="Y48" s="3">
         <v>633200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Z48" s="3">
         <v>627500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="AA48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2016700</v>
+        <v>3377400</v>
       </c>
       <c r="E49" s="3">
-        <v>2024200</v>
+        <v>3413600</v>
       </c>
       <c r="F49" s="3">
-        <v>2048500</v>
+        <v>3411600</v>
       </c>
       <c r="G49" s="3">
+        <v>428700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>431700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>431900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>435800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2043800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>2041200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>2046800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>2068500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>2073900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>2101400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>2113500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="3">
         <v>2134700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="S49" s="3">
         <v>2177500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
         <v>2211700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="U49" s="3">
         <v>2144400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="V49" s="3">
         <v>2147600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="W49" s="3">
         <v>2157600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="X49" s="3">
         <v>2161300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="Y49" s="3">
         <v>2156900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Z49" s="3">
         <v>2164900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="AA49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3677,20 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3754,97 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66900</v>
+        <v>36000</v>
       </c>
       <c r="E52" s="3">
-        <v>62100</v>
+        <v>38300</v>
       </c>
       <c r="F52" s="3">
-        <v>60300</v>
+        <v>37200</v>
       </c>
       <c r="G52" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K52" s="3">
         <v>58900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>56900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>63000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>78500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>51400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>54100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>58300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>55900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>49400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="T52" s="3">
         <v>48500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="U52" s="3">
         <v>46900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="V52" s="3">
         <v>43200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="W52" s="3">
         <v>42500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="X52" s="3">
         <v>41300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="Y52" s="3">
         <v>38900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Z52" s="3">
         <v>34100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="AA52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3908,97 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4773700</v>
+        <v>4758000</v>
       </c>
       <c r="E54" s="3">
-        <v>4627200</v>
+        <v>4845400</v>
       </c>
       <c r="F54" s="3">
-        <v>4589000</v>
+        <v>4875100</v>
       </c>
       <c r="G54" s="3">
+        <v>2567800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1490600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1434300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4479400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>4408100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>4585900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>4430700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>4478300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>4660300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>4705900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>4623800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>4601300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>4634700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>4507200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>4388200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>4464000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>4483000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Y54" s="3">
         <v>4444400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Z54" s="3">
         <v>4358500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="AA54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +4022,12 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +4051,474 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>461400</v>
+        <v>161800</v>
       </c>
       <c r="E57" s="3">
-        <v>412300</v>
+        <v>158600</v>
       </c>
       <c r="F57" s="3">
-        <v>360100</v>
+        <v>140400</v>
       </c>
       <c r="G57" s="3">
+        <v>47600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K57" s="3">
         <v>363800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>342600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>340300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>337000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>362300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>416700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>429600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>424800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>415300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>438600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>423500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>384300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>417200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>406500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="Y57" s="3">
         <v>393800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Z57" s="3">
         <v>334200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="AA57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>230900</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>230800</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="3">
-        <v>231000</v>
+        <v>63500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K58" s="3">
         <v>230600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>100500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>100800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>101200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="W58" s="3">
         <v>100600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>100700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="Y58" s="3">
         <v>100400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Z58" s="3">
         <v>100600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="AA58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>246500</v>
+        <v>167000</v>
       </c>
       <c r="E59" s="3">
-        <v>227900</v>
+        <v>153300</v>
       </c>
       <c r="F59" s="3">
-        <v>230900</v>
+        <v>139100</v>
       </c>
       <c r="G59" s="3">
+        <v>64200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K59" s="3">
         <v>236400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>235200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>239400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>222900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>226300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>228000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>244800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>258200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>245800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>229000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>188900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>226500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="W59" s="3">
         <v>217100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="X59" s="3">
         <v>225600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="Y59" s="3">
         <v>219800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Z59" s="3">
         <v>266800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="AA59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>938800</v>
+        <v>330400</v>
       </c>
       <c r="E60" s="3">
-        <v>871000</v>
+        <v>313500</v>
       </c>
       <c r="F60" s="3">
-        <v>822000</v>
+        <v>343000</v>
       </c>
       <c r="G60" s="3">
+        <v>112300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>95500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>88200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K60" s="3">
         <v>830800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>578400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>580300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>560500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>589200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>645300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>676500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>683500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>661700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>768100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>713200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>712000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>734900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>732800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="Y60" s="3">
         <v>714000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Z60" s="3">
         <v>701600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="AA60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>789000</v>
+        <v>1563800</v>
       </c>
       <c r="E61" s="3">
-        <v>786900</v>
+        <v>1686800</v>
       </c>
       <c r="F61" s="3">
-        <v>840400</v>
+        <v>1726700</v>
       </c>
       <c r="G61" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K61" s="3">
         <v>840200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>1125100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>1364300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>1136900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1200300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>1222700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>1213200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>1306600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>1278300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>1235100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="U61" s="3">
         <v>1081500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="V61" s="3">
         <v>1039900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="W61" s="3">
         <v>1113800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="X61" s="3">
         <v>1199500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="Y61" s="3">
         <v>1269100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Z61" s="3">
         <v>1310900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="AA61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>349400</v>
+        <v>466200</v>
       </c>
       <c r="E62" s="3">
-        <v>351500</v>
+        <v>473300</v>
       </c>
       <c r="F62" s="3">
-        <v>349600</v>
+        <v>470300</v>
       </c>
       <c r="G62" s="3">
+        <v>111300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>110500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K62" s="3">
         <v>356500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>357600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>341200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>352900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>359700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>361900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>372200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
         <v>295200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>301800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
         <v>290800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="U62" s="3">
         <v>292300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="V62" s="3">
         <v>281600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="W62" s="3">
         <v>312900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="X62" s="3">
         <v>301900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="Y62" s="3">
         <v>287500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Z62" s="3">
         <v>267800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="AA62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4582,20 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4659,20 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4736,97 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2108700</v>
+        <v>2360400</v>
       </c>
       <c r="E66" s="3">
-        <v>2043100</v>
+        <v>2473600</v>
       </c>
       <c r="F66" s="3">
-        <v>2044600</v>
+        <v>2540100</v>
       </c>
       <c r="G66" s="3">
+        <v>230700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>216200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>204300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2057500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>2089000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>2315300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2079600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2177000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>2259300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>2291000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>2313300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>2268800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>2324700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>2118100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>2062700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>2194900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>2277200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="Y66" s="3">
         <v>2311800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Z66" s="3">
         <v>2319700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="AA66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4850,12 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4919,20 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4996,20 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +5073,20 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +5150,97 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2130300</v>
+        <v>917800</v>
       </c>
       <c r="E72" s="3">
-        <v>2064100</v>
+        <v>911900</v>
       </c>
       <c r="F72" s="3">
-        <v>2010700</v>
+        <v>885500</v>
       </c>
       <c r="G72" s="3">
+        <v>891300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>884900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>858900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1972500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>1919700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>1903800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>1886700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>1870900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>1882700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>1851800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>1777900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>1742300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>1704400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>1655100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>1611600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>1571500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>1525000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="Y72" s="3">
         <v>1487500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Z72" s="3">
         <v>1452000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="AA72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +5304,20 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +5381,20 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +5458,97 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2665000</v>
+        <v>2397600</v>
       </c>
       <c r="E76" s="3">
-        <v>2584100</v>
+        <v>2371800</v>
       </c>
       <c r="F76" s="3">
-        <v>2544400</v>
+        <v>2334900</v>
       </c>
       <c r="G76" s="3">
+        <v>2337100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1274400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1204800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2421900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>2319100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>2270600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>2351100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>2301300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>2401000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>2414900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>2310500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>2332500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>2310000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>2389100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>2325500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>2269100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>2205800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="Y76" s="3">
         <v>2132600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Z76" s="3">
         <v>2038800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="AA76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5612,179 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
-        <v>44198</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79600</v>
+        <v>31700</v>
       </c>
       <c r="E81" s="3">
-        <v>65600</v>
+        <v>26500</v>
       </c>
       <c r="F81" s="3">
-        <v>50400</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>28100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>45800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>36700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>49700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>66600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>85900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>55600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>51300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>65900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>58400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>51500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="W81" s="3">
         <v>62200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="X81" s="3">
         <v>53000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="Y81" s="3">
         <v>46300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Z81" s="3">
         <v>45600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="AA81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5808,89 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30500</v>
+        <v>28600</v>
       </c>
       <c r="E83" s="3">
-        <v>31800</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>32900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="M83" s="3">
         <v>32600</v>
       </c>
-      <c r="G83" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>33300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>34100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>33900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>32200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>34300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>36100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>35300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="T83" s="3">
         <v>36200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="U83" s="3">
         <v>34800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="V83" s="3">
         <v>34100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="W83" s="3">
         <v>34300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="X83" s="3">
         <v>34400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="Y83" s="3">
         <v>34400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="Z83" s="3">
         <v>38800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="AA83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5954,20 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +6031,20 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +6108,20 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +6185,20 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +6262,97 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87100</v>
+        <v>59000</v>
       </c>
       <c r="E89" s="3">
-        <v>49500</v>
+        <v>46900</v>
       </c>
       <c r="F89" s="3">
-        <v>125500</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>41900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K89" s="3">
         <v>120300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>86900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>102700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>137300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>140600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>112300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>18300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>112400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>106000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>101800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>42500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="V89" s="3">
         <v>56900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="W89" s="3">
         <v>86100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="X89" s="3">
         <v>98400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="Y89" s="3">
         <v>50500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Z89" s="3">
         <v>111200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="AA89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +6376,89 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13600</v>
+        <v>-7900</v>
       </c>
       <c r="E91" s="3">
-        <v>-10700</v>
+        <v>-8000</v>
       </c>
       <c r="F91" s="3">
-        <v>-17800</v>
+        <v>-14900</v>
       </c>
       <c r="G91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-15100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-21100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-20200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
         <v>-18400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-18700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-19300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="V91" s="3">
         <v>-16200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="W91" s="3">
         <v>-15300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="X91" s="3">
         <v>-16700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="Y91" s="3">
         <v>-17000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Z91" s="3">
         <v>-19100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="AA91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +6522,20 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +6599,97 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14600</v>
+        <v>15200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11700</v>
+        <v>-8000</v>
       </c>
       <c r="F94" s="3">
-        <v>-15200</v>
+        <v>-2923100</v>
       </c>
       <c r="G94" s="3">
+        <v>116900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-15500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>99200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-14700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-182600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-18500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="V94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="W94" s="3">
         <v>-10100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="X94" s="3">
         <v>-16400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="Y94" s="3">
         <v>-15500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Z94" s="3">
         <v>9900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="AA94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,73 +6713,89 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="L96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="N96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="T96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="V96" s="3">
         <v>-11400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="W96" s="3">
         <v>-11700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="X96" s="3">
         <v>-10600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="Y96" s="3">
         <v>-10800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="Z96" s="3">
         <v>-10800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="AA96" s="3">
         <v>-10800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6859,20 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6936,20 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +7013,247 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25400</v>
+        <v>-136400</v>
       </c>
       <c r="E100" s="3">
-        <v>-76700</v>
+        <v>-111800</v>
       </c>
       <c r="F100" s="3">
-        <v>-12400</v>
+        <v>1790000</v>
       </c>
       <c r="G100" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-255500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>188700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-93600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-131500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-66300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-106000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>-33900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-80200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>94300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>-91700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="W100" s="3">
         <v>-134400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="X100" s="3">
         <v>-104200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="Y100" s="3">
         <v>-60300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Z100" s="3">
         <v>-111000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="AA100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>25900</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-10400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-7800</v>
       </c>
       <c r="Q101" s="3">
         <v>4200</v>
       </c>
       <c r="R101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="U101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="X101" s="3">
         <v>3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="Y101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Z101" s="3">
         <v>-7200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>52100</v>
+        <v>-63300</v>
       </c>
       <c r="E102" s="3">
-        <v>-44900</v>
+        <v>-72600</v>
       </c>
       <c r="F102" s="3">
-        <v>123800</v>
+        <v>-1093100</v>
       </c>
       <c r="G102" s="3">
+        <v>1172800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K102" s="3">
         <v>55300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-172300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>273100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>38400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>15700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>64200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>8800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>30300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>-47000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="W102" s="3">
         <v>-57100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="X102" s="3">
         <v>-18600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="Y102" s="3">
         <v>-22200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="AA102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,369 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>351600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>369200</v>
+      </c>
+      <c r="F8" s="3">
         <v>354100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>358900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>267000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>160900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>156200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>160300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>145900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>758200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>634100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>734200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>738200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>772300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>873700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>853800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>881700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>925400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>959700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>878800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>820700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>856900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>869200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>813500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>758100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F9" s="3">
         <v>212900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>221400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>173600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>98400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>92400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>97800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>90300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>532600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>459000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>526600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>543400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>566000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>638800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>618400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>641400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>681800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>711400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>643200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>601200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>628700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>639300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>595500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>563300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F10" s="3">
         <v>141200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>137500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>93400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>62500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>63800</v>
       </c>
       <c r="I10" s="3">
         <v>62500</v>
       </c>
       <c r="J10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="L10" s="3">
         <v>55600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>225600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>175100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>207600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>194800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>206300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>234900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>235400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>240300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>243600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>248300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>235600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>219500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>228200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>229900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>218000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>194800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1055,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1134,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,114 +1217,126 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
-        <v>23600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2500</v>
-      </c>
       <c r="H14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-28900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>20500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>7700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>3200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>2600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F15" s="3">
         <v>17300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>17200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>12100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2500</v>
       </c>
       <c r="J15" s="3">
         <v>2600</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1338,8 +1383,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1415,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>297200</v>
+      </c>
+      <c r="F17" s="3">
         <v>289600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>301000</v>
       </c>
-      <c r="F17" s="3">
-        <v>252600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>133800</v>
-      </c>
       <c r="H17" s="3">
+        <v>251100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>144300</v>
+      </c>
+      <c r="J17" s="3">
         <v>126900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>130600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>119300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>668200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>588200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>664200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>676500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>699500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>777700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>733200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>791900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>856000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>860100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>790600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>742400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>762900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>786200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>738700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>688000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F18" s="3">
         <v>64500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>57900</v>
       </c>
-      <c r="F18" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>27100</v>
-      </c>
       <c r="H18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J18" s="3">
         <v>29300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>70000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>61700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>72800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>96000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>120600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>89800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>69400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>99600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>88200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>78300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>94000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>83000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>74800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>70100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,162 +1612,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-16600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-13800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81900</v>
+      </c>
+      <c r="F21" s="3">
         <v>76500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>72300</v>
       </c>
-      <c r="F21" s="3">
-        <v>21600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>20300</v>
-      </c>
       <c r="H21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J21" s="3">
         <v>37700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>37600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>34200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>125300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>81700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>104800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>97900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>108100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>129400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>155900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>125700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>105300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>135500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>122800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>112900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>128400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>117300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>109100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>108900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1728,212 +1807,230 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>11600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>13500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>14300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>13700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>13500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>12900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>13600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>13300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>13400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F23" s="3">
         <v>47900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>44100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>29500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>29600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>83400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>60600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>51300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>60700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>83800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>108000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>75300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>56300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>85600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>75000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>65300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>81200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>69300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>61400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>56700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>11900</v>
       </c>
-      <c r="F24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>17100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>41700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>13700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>17600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>15000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>13800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>9600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2106,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F26" s="3">
         <v>37400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>32200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>6900</v>
-      </c>
       <c r="H26" s="3">
+        <v>500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>24000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>25000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>21600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>66300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>29300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>46700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>37600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>50800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>67400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>86800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>33600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>52700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>67300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>59300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>51600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>63600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>54300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>47600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>47100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F27" s="3">
         <v>31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>26500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J27" s="3">
         <v>24000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>25000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>21600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>45800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>49700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>66600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>85900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>32700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>51300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>65900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>58400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>50500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>62200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>53000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>46300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>45600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,34 +2355,40 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2287,26 +2408,26 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>22900</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>22900</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>1000</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>1000</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2317,8 +2438,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2521,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2604,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F32" s="3">
         <v>16600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>13800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F33" s="3">
         <v>31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>26500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J33" s="3">
         <v>24000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>25000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>21600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>45800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>36700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>49700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>66600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>85900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>55600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>51300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>65900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>58400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>51500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>62200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>53000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>46300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>45600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2853,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F35" s="3">
         <v>31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>26500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>6400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J35" s="3">
         <v>24000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>25000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>21600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>45800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>36700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>49700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>66600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>85900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>55600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>51300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>65900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>58400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>51500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>62200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>53000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>46300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>45600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +3059,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,500 +3090,538 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>88500</v>
+      </c>
+      <c r="F41" s="3">
         <v>119600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>182900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>255500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1348600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>175800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>151100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>126200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>487500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>432200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>604500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>331400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>293000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>291300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>264300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>248600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>184400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>175600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>169900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>139600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>186600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>243700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>262300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>284500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>120300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>90200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75500</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>8300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>6000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>20600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>11700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>9600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>7000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>7400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>3900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>241200</v>
+      </c>
+      <c r="F43" s="3">
         <v>239900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>251400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>204300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>116400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>112000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>116100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>108600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>472500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>427200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>464000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>461400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>491700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>547800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>545900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>551900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>582900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>607700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>562800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>506300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>527300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>544500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>509000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>462200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>577600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>557800</v>
+      </c>
+      <c r="F44" s="3">
         <v>542100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>516100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>510200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>370700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>369900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>364100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>372100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>677200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>679700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>655300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>678400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>725700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>765300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>803800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>767200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>791000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>785300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>778300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>757100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>734900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>698200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>687900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>660800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>17300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>115400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>136600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>108900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>127700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>151800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>190200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>209800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>244000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>162000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>148600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>154500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>159700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>171800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>149700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>148800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>120600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>901800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>911500</v>
+      </c>
+      <c r="F46" s="3">
         <v>916100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>962200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>987200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1859900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>786100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>728200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>692300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1752600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1675700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1834400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1607700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1667900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1802900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1836500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1817700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1729900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1724300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1686100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1574400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1630200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1643100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1615400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1532000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -3458,162 +3667,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>417800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>421600</v>
+      </c>
+      <c r="F48" s="3">
         <v>428600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>431300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>439000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>237300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>240900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>243900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>249600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>624100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>634300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>641700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>676000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>685100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>701900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>697600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>615500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>644500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>650200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>629800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>623000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>633700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>637300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>633200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>627500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3337900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3357700</v>
+      </c>
+      <c r="F49" s="3">
         <v>3377400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3413600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3411600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>428700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>431700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>431900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>435800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2043800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2041200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2046800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2068500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2073900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2101400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2113500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2134700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2177500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2211700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2144400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2147600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2157600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2161300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2156900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2164900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3916,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3999,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F52" s="3">
         <v>36000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>38300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>37200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>41900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>31800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>30200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>29100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>58900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>56900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>63000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>78500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>51400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>54100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>58300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>55900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>49400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>48500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>46900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>43200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>42500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>41300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>38900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>34100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4165,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4692900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4727100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4758000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4845400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4875100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2567800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1490600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1434300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1409000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4479400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4408100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4585900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4430700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4478300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4660300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4705900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4623800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4601300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4634700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4507200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4388200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4464000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4483000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4444400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4358500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4283,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,85 +4314,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>148900</v>
+      </c>
+      <c r="F57" s="3">
         <v>161800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>158600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>140400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>47600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>42700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>36300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>363800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>342600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>340300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>337000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>362300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>416700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>429600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>424800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>415300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>438600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>423500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>384300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>417200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>406500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>393800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>334200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,28 +4411,28 @@
         <v>1500</v>
       </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>63500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>230600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -4177,348 +4444,378 @@
         <v>600</v>
       </c>
       <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>100800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>101200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>100600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>100700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>100400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>100600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>155900</v>
+      </c>
+      <c r="F59" s="3">
         <v>167000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>153300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>139100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>64200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>52300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>49300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>236400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>235200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>239400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>222900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>226300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>228000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>244800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>258200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>245800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>229000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>188900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>226500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>217100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>225600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>219800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>266800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>282700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>306200</v>
+      </c>
+      <c r="F60" s="3">
         <v>330400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>313500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>343000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>112300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>95500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>88200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>88400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>830800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>578400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>580300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>560500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>589200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>645300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>676500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>683500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>661700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>768100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>713200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>712000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>734900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>732800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>714000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>701600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1462500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1520600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1563800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1686800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1726700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>13500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>840200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1125100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1364300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1136900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1200300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1222700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1213200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1306600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1278300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1235100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1081500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1039900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1113800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1199500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1269100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1310900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>466700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>460100</v>
+      </c>
+      <c r="F62" s="3">
         <v>466200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>473300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>470300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>111300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>110500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>102600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>101400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>356500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>357600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>341200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>352900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>359700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>361900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>372200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>295200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>301800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>290800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>292300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>281600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>312900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>301900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>287500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>267800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4891,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4974,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +5057,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2212000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2286900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2360400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2473600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2540100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>230700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>216200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>204300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>204200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2057500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2089000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2315300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2079600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2177000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2259300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2291000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2313300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2268800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2324700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2118100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2062700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2194900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2277200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2311800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2319700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5175,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5254,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5337,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5420,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5503,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>986500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>955900</v>
+      </c>
+      <c r="F72" s="3">
         <v>917800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>911900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>885500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>891300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>884900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>858900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>833900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1972500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1919700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1903800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1886700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1870900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1882700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1851800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1777900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1742300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1704400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1655100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1611600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1571500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1525000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1487500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1452000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5669,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5752,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5835,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2480900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2440100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2397600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2371800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2334900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2337100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1274400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1230000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1204800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2421900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2319100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2270600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2351100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2301300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2414900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2310500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2332500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2310000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2389100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2325500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2269100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2205800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2132600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2038800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +6001,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F81" s="3">
         <v>31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>26500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>6400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J81" s="3">
         <v>24000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>25000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>21600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>45800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>36700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>49700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>66600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>85900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>55600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>51300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>65900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>58400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>51500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>62200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>53000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>46300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>45600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6207,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F83" s="3">
         <v>28600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>28200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>32900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>33300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>32600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>34100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>33900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>32200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>34300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>36100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>35300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>36200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>34800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>34100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>34300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>34400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>34400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>38800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6369,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6452,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6535,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6618,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6701,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F89" s="3">
         <v>59000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>46900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>40000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>40200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>53300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>41900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>36100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>120300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>86900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>102700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>137300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>140600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>112300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>18300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>112400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>106000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>101800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>42500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>56900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>86100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>98400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>50500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>111200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6819,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-10900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-15100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-20200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-18700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-21200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-19300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-16200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-15300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-16700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6981,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +7064,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F94" s="3">
         <v>15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2923100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>116900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-33300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-77900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>99200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-182600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-18500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-15800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-10100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>9900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +7182,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6744,58 +7211,64 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-12200</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-12100</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-12200</v>
       </c>
       <c r="N96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-12600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-12000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-12100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-11500</v>
       </c>
       <c r="V96" s="3">
         <v>-11400</v>
       </c>
       <c r="W96" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-11700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-10800</v>
       </c>
       <c r="AA96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7344,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7427,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7510,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-136400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-111800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1790000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1015700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-68400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-255500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>188700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-93600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-131500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-66300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-106000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-33900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-80200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>94300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-91700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-134400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-104200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-60300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-111000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-7800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4200</v>
-      </c>
-      <c r="V101" s="3">
-        <v>3600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1300</v>
       </c>
       <c r="X101" s="3">
         <v>3600</v>
       </c>
       <c r="Y101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA101" s="3">
         <v>3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-63300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-72600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1093100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1172800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>24700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>24900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-40200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>55300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-172300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>273100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>38400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>27000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>15700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>64200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>8800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>30300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-47000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-57100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -875,7 +875,7 @@
         <v>212900</v>
       </c>
       <c r="G9" s="3">
-        <v>221400</v>
+        <v>442800</v>
       </c>
       <c r="H9" s="3">
         <v>173600</v>
@@ -958,7 +958,7 @@
         <v>141200</v>
       </c>
       <c r="G10" s="3">
-        <v>137500</v>
+        <v>-83900</v>
       </c>
       <c r="H10" s="3">
         <v>93400</v>
@@ -1432,7 +1432,7 @@
         <v>289600</v>
       </c>
       <c r="G17" s="3">
-        <v>301000</v>
+        <v>299500</v>
       </c>
       <c r="H17" s="3">
         <v>251100</v>
@@ -1515,7 +1515,7 @@
         <v>64500</v>
       </c>
       <c r="G18" s="3">
-        <v>57900</v>
+        <v>59400</v>
       </c>
       <c r="H18" s="3">
         <v>15900</v>
@@ -1712,7 +1712,7 @@
         <v>76500</v>
       </c>
       <c r="G21" s="3">
-        <v>72300</v>
+        <v>73800</v>
       </c>
       <c r="H21" s="3">
         <v>23100</v>
@@ -1878,7 +1878,7 @@
         <v>47900</v>
       </c>
       <c r="G23" s="3">
-        <v>44100</v>
+        <v>45600</v>
       </c>
       <c r="H23" s="3">
         <v>2600</v>
@@ -1961,7 +1961,7 @@
         <v>10500</v>
       </c>
       <c r="G24" s="3">
-        <v>11900</v>
+        <v>14100</v>
       </c>
       <c r="H24" s="3">
         <v>2100</v>
@@ -2127,7 +2127,7 @@
         <v>37400</v>
       </c>
       <c r="G26" s="3">
-        <v>32200</v>
+        <v>31500</v>
       </c>
       <c r="H26" s="3">
         <v>500</v>
@@ -2210,7 +2210,7 @@
         <v>31700</v>
       </c>
       <c r="G27" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H27" s="3">
         <v>-5200</v>
@@ -2708,7 +2708,7 @@
         <v>31700</v>
       </c>
       <c r="G33" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H33" s="3">
         <v>-5200</v>
@@ -2874,7 +2874,7 @@
         <v>31700</v>
       </c>
       <c r="G35" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H35" s="3">
         <v>-5200</v>
@@ -6110,7 +6110,7 @@
         <v>31700</v>
       </c>
       <c r="G81" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H81" s="3">
         <v>-5200</v>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,394 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>394400</v>
+      </c>
+      <c r="F8" s="3">
         <v>351600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>369200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>354100</v>
       </c>
-      <c r="G8" s="3">
-        <v>358900</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>358800</v>
+      </c>
+      <c r="J8" s="3">
         <v>267000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>160900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>156200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>160300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>145900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>758200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>634100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>734200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>738200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>772300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>873700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>853800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>881700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>925400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>959700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>878800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>820700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>856900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>869200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>813500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>758100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>228000</v>
+      </c>
+      <c r="F9" s="3">
         <v>205600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>218000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>212900</v>
       </c>
-      <c r="G9" s="3">
-        <v>442800</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>221300</v>
+      </c>
+      <c r="J9" s="3">
         <v>173600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>98400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>92400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>97800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>90300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>532600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>459000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>526600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>543400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>566000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>638800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>618400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>641400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>681800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>711400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>643200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>601200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>628700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>639300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>595500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>563300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>166400</v>
+      </c>
+      <c r="F10" s="3">
         <v>146000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>151200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>141200</v>
       </c>
-      <c r="G10" s="3">
-        <v>-83900</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J10" s="3">
         <v>93400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>62500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>63800</v>
       </c>
       <c r="K10" s="3">
         <v>62500</v>
       </c>
       <c r="L10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="N10" s="3">
         <v>55600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>225600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>175100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>207600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>194800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>206300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>234900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>235400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>240300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>243600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>248300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>235600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>219500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>228200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>229900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>218000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>194800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1082,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1167,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,126 +1256,138 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>10600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>7500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-28900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>20500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>1500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>7700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>3200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>2600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F15" s="3">
         <v>17400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>16800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>17300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>17200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>12100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2500</v>
       </c>
       <c r="L15" s="3">
         <v>2600</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1389,8 +1434,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1468,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>308300</v>
+      </c>
+      <c r="F17" s="3">
         <v>281200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>297200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>289600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>299500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>251100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>144300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>126900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>130600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>119300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>668200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>588200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>664200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>676500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>699500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>777700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>733200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>791900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>856000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>860100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>790600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>742400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>762900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>786200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>738700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>688000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>86100</v>
+      </c>
+      <c r="F18" s="3">
         <v>70400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>72100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>64500</v>
       </c>
-      <c r="G18" s="3">
-        <v>59400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>59300</v>
+      </c>
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>29300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>29700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>26600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>70000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>61700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>72800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>96000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>120600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>89800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>69400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>99600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>88200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>78300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>94000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>83000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>74800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>70100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,174 +1679,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-22400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-18500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-16600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-13800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-15500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>89900</v>
+      </c>
+      <c r="F21" s="3">
         <v>76700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>81900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>76500</v>
       </c>
-      <c r="G21" s="3">
-        <v>73800</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J21" s="3">
         <v>23100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>37700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>37600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>34200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>125300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>81700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>104800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>97900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>108100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>129400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>155900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>125700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>105300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>135500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>122800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>112900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>128400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>117300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>109100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>108900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1813,224 +1892,242 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>10600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>13400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>14300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>13700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>13700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>13000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>13500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>12900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>13600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>13300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>13400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F23" s="3">
         <v>48000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>53500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>47900</v>
       </c>
-      <c r="G23" s="3">
-        <v>45600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>29500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>29600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>26300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>83400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>60600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>51300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>60700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>83800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>108000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>75300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>56300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>85600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>75000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>65300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>81200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>69300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>61400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>56700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F24" s="3">
         <v>11700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>10500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>17100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>41700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>18300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>15700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>13700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>17600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>15000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>13800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>9600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2209,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F26" s="3">
         <v>36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>31500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>24000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>21600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>66300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>29300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>46700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>37600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>50800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>67400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>86800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>33600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>52700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>67300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>59300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>51600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>63600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>54300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>47600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>47100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F27" s="3">
         <v>30600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>38100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>25700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>21600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>45800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>36700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>49700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>66600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>85900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>32700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>51300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>65900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>58400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>50500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>62200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>53000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>46300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>45600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,40 +2476,46 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2414,26 +2535,26 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>22900</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>22900</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>1000</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>1000</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2444,8 +2565,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2654,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2743,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F32" s="3">
         <v>22400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>18500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>16600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>13800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>15500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F33" s="3">
         <v>30600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>38100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>21600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>28100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>45800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>36700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>49700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>66600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>85900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>55600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>51300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>65900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>58400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>51500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>62200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>53000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>46300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>45600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +3010,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F35" s="3">
         <v>30600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>38100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>21600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>28100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>45800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>36700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>49700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>66600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>85900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>55600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>51300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>65900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>58400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>51500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>62200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>53000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>46300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>45600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3230,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,506 +3263,544 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F41" s="3">
         <v>82000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>88500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>119600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>182900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>255500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1348600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>175800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>151100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>126200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>487500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>432200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>604500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>331400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>293000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>291300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>264300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>248600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>184400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>175600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>169900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>139600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>186600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>243700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>262300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>284500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>120300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>90200</v>
+      </c>
+      <c r="N42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>120300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>90200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>75500</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>8800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>12700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>6000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>9600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>7100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>20600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>11700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>9600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>7000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>7400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>3900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>257100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>244100</v>
+      </c>
+      <c r="F43" s="3">
         <v>219500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>241200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>239900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>251400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>204300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>116400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>112000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>116100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>108600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>472500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>427200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>464000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>461400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>491700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>547800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>545900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>551900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>582900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>607700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>562800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>506300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>527300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>544500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>509000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>462200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>603300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>587200</v>
+      </c>
+      <c r="F44" s="3">
         <v>577600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>557800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>542100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>516100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>510200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>370700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>369900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>364100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>372100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>677200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>679700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>655300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>678400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>725700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>765300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>803800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>767200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>791000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>785300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>778300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>757100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>734900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>698200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>687900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>660800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>24000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>24100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>115400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>136600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>108900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>127700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>151800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>190200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>209800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>244000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>162000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>148600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>154500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>159700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>171800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>149700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>148800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>120600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>935500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>913300</v>
+      </c>
+      <c r="F46" s="3">
         <v>901800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>911500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>916100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>962200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>987200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1859900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>786100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>728200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>692300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1752600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1675700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1834400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1607700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1667900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1802900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1836500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1817700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1729900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1724300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1686100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1574400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1630200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1643100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1615400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1532000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3616,18 +3825,18 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -3673,174 +3882,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>416700</v>
+      </c>
+      <c r="F48" s="3">
         <v>417800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>421600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>428600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>431300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>439000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>237300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>240900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>243900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>249600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>624100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>634300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>641700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>676000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>685100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>701900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>697600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>615500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>644500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>650200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>629800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>623000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>633700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>637300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>633200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>627500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3306800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3322700</v>
+      </c>
+      <c r="F49" s="3">
         <v>3337900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3357700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3377400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3413600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3411600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>428700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>431700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>431900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>435800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2043800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2041200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2046800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2068500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2073900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2101400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2113500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2134700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2177500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2211700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2144400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2147600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2157600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2161300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2156900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2164900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4149,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4238,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F52" s="3">
         <v>35400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>36300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>36000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>37200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>41900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>30200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>29100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>58900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>56900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>63000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>78500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>51400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>54100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>58300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>55900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>49400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>48500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>46900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>43200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>42500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>41300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>38900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>34100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4416,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4697400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4690400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4692900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4727100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4758000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4845400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4875100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2567800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1490600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1434300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1409000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4479400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4408100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4585900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4430700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4478300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4660300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4705900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4623800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4601300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4634700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4507200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4388200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4464000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4483000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4444400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4358500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4542,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,96 +4575,104 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>146800</v>
+      </c>
+      <c r="F57" s="3">
         <v>136700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>148900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>161800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>158600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>140400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>47600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>42700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>39900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>363800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>342600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>340300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>337000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>362300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>416700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>429600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>424800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>415300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>438600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>423500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>384300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>417200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>406500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>393800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>334200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>6900</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
@@ -4417,28 +4684,28 @@
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>63500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>230600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -4450,372 +4717,402 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>100500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>100800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>101200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>100600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>100700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>100400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>100600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F59" s="3">
         <v>144400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>155900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>167000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>153300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>139100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>64200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>52300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>49300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>42300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>236400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>235200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>239400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>222900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>226300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>228000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>244800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>258200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>245800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>229000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>188900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>226500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>217100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>225600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>219800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>266800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>309300</v>
+      </c>
+      <c r="F60" s="3">
         <v>282700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>306200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>330400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>313500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>343000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>112300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>95500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>88200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>88400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>830800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>578400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>580300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>560500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>589200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>645300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>676500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>683500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>661700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>768100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>713200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>712000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>734900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>732800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>714000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>701600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1343300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1393500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1462500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1520600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1563800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1686800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1726700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>840200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1125100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1364300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1136900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1200300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1222700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1213200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1306600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1278300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1235100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1081500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1039900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1113800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1199500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1269100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1310900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>450400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>451700</v>
+      </c>
+      <c r="F62" s="3">
         <v>466700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>460100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>466200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>473300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>470300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>111300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>110500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>102600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>101400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>356500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>357600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>341200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>352900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>359700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>361900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>372200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>295200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>301800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>290800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>292300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>281600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>312900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>301900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>287500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>267800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5194,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5283,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5372,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2109700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2154500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2212000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2286900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2360400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2473600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2540100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>230700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>216200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>204300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>204200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2057500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2089000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2315300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2079600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2177000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2259300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2291000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2313300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2268800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2324700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2118100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2062700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2194900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2277200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2311800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2319700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5498,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5583,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5672,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5761,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5850,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1074200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1029900</v>
+      </c>
+      <c r="F72" s="3">
         <v>986500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>955900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>917800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>911900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>885500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>891300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>884900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>858900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>833900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1972500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1919700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1903800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1886700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1870900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1882700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1851800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1777900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1742300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1704400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1655100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1611600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1571500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1525000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1487500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1452000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +6028,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +6117,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6206,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2587700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2535900</v>
+      </c>
+      <c r="F76" s="3">
         <v>2480900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2440100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2397600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2371800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2334900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2337100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1274400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1230000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1204800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2421900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2319100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2270600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2351100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2301300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2401000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2414900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2310500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2332500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2310000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2389100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2325500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2269100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2205800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2132600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>2038800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6384,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F81" s="3">
         <v>30600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>38100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>21600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>28100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>45800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>36700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>49700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>66600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>85900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>55600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>51300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>65900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>58400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>51500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>62200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>53000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>46300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>45600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6604,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F83" s="3">
         <v>28700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>28400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>28600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>32900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>33300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>32600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>34100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>33900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>32200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>34300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>36100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>35300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>36200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>34800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>34100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>34300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>34400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>34400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>38800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6778,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6867,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6956,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +7045,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +7134,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F89" s="3">
         <v>60900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>29300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>59000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>46900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>40000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>40200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>53300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>41900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>36100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>120300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>86900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>102700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>137300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>140600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>112300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>18300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>112400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>106000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>101800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>42500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>56900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>86100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>98400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>50500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>111200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7260,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-14900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-21100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-20200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-18400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-18700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-21200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-19300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-16700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-19100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7434,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7523,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>15200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2923100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>116900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-77900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-15500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>99200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-12100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-14700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-182600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-15500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>9900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7649,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7217,58 +7684,64 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-12200</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-12100</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-12200</v>
       </c>
       <c r="P96" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-12600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-12000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-12000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-12100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-11500</v>
       </c>
       <c r="X96" s="3">
         <v>-11400</v>
       </c>
       <c r="Y96" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-10800</v>
       </c>
       <c r="AC96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7823,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7912,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +8001,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-67100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-43600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-136400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-111800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1790000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1015700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-68400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-255500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>188700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-93600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-131500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-66300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-106000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-33900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-80200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>94300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-91700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-134400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-104200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-60300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-111000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-7700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-7800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>4200</v>
-      </c>
-      <c r="X101" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1300</v>
       </c>
       <c r="Z101" s="3">
         <v>3600</v>
       </c>
       <c r="AA101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AC101" s="3">
         <v>3100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-7200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-31100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-63300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-72600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1093100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1172800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>24700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>24900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-40200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>55300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-172300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>273100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>38400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>27000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>15700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>64200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>8800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>30300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-57100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-18600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>2900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>10100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>RBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>385600</v>
+      </c>
+      <c r="E8" s="3">
         <v>387100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>394400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>351600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>369200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>354100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>358800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>267000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>156200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>160300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>145900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>758200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>634100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>734200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>738200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>772300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>873700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>853800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>881700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>925400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>959700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>878800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>820700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>856900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>869200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>813500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>758100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>809600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E9" s="3">
         <v>219200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>228000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>218000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>212900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>221300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>173600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>97800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>532600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>459000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>526600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>543400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>566000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>638800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>618400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>641400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>681800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>711400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>643200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>601200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>628700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>639300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>595500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>563300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E10" s="3">
         <v>167900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>146000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>151200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>141200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>137500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>207600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>194800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>206300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>234900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>235400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>240300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>243600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>248300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>235600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>219500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>228200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>229900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>218000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>194800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1097,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,136 +1279,142 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-28900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>20500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1600</v>
       </c>
       <c r="AA14" s="3">
         <v>1600</v>
       </c>
       <c r="AB14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC14" s="3">
         <v>7700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E15" s="3">
         <v>17500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>17600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>17300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>17200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2600</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E17" s="3">
         <v>302100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>308300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>281200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>297200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>289600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>299500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>130600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>668200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>588200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>664200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>676500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>699500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>777700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>733200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>791900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>856000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>860100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>790600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>742400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>762900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>786200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>738700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>688000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>719800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>86100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>72100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>72800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>120600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>89800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>69400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>99600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>88200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>78300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>94000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>83000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>74800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>70100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,186 +1714,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-100</v>
       </c>
       <c r="AC20" s="3">
         <v>-100</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E21" s="3">
         <v>93700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>76700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>81900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>76500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>73700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>129400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>155900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>125700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>135500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>122800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>112900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>128400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>117300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>109100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>108900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>127300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1898,236 +1938,245 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>13700</v>
       </c>
       <c r="X22" s="3">
         <v>13700</v>
       </c>
       <c r="Y22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Z22" s="3">
         <v>13000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>13300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>13400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E23" s="3">
         <v>64000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>108000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>75300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>56300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>85600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>75000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>65300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>81200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>69300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>61400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>56700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4700</v>
       </c>
       <c r="N24" s="3">
         <v>4700</v>
       </c>
       <c r="O24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P24" s="3">
         <v>17100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>9600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E26" s="3">
         <v>50000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>86800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>52700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>67300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>59300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>51600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>63600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>54300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>47600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>47100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>61100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E27" s="3">
         <v>44300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>66600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>65900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>58400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>50500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>62200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>53000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>46300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>45600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,17 +2569,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2541,11 +2602,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>22900</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2553,11 +2614,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2571,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E32" s="3">
         <v>21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>100</v>
       </c>
       <c r="AC32" s="3">
         <v>100</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E33" s="3">
         <v>44300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>66600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>55600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>65900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>58400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>62200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>53000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>46300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>45600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E35" s="3">
         <v>44300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>66600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>55600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>65900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>58400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>62200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>53000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>46300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>45600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,97 +3351,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E41" s="3">
         <v>56700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>82000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>182900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>255500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1348600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>151100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>487500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>432200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>604500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>331400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>291300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>264300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>248600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>184400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>175600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>169900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>139600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>186600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>243700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>262300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>284500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>281600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3384,423 +3474,438 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>120300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>90200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75500</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>1700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>20600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>9600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E43" s="3">
         <v>257100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>244100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>219500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>241200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>239900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>251400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>204300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>112000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>108600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>472500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>427200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>464000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>461400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>491700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>547800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>545900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>551900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>582900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>607700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>562800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>506300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>527300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>544500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>509000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>462200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>501000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E44" s="3">
         <v>603300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>587200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>577600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>557800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>542100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>516100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>510200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>370700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>369900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>364100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>372100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>677200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>679700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>655300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>678400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>725700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>765300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>803800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>767200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>791000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>785300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>778300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>757100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>734900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>698200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>687900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>660800</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>685600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
         <v>18400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>115400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>136600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>108900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>151800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>190200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>209800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>244000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>162000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>148600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>154500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>159700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>171800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>149700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>148800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>120600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>127600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>938200</v>
+      </c>
+      <c r="E46" s="3">
         <v>935500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>913300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>901800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>911500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>916100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>962200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>987200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1859900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>786100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>728200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>692300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1752600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1675700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1834400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1607700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1667900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1802900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1836500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1817700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1729900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1724300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1686100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1574400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1630200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1643100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1615400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1532000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1597900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3831,15 +3936,15 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -3888,186 +3993,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>409600</v>
+      </c>
+      <c r="E48" s="3">
         <v>412600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>416700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>417800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>421600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>428600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>431300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>439000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>237300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>240900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>243900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>249600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>624100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>634300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>641700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>676000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>685100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>701900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>697600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>615500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>644500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>650200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>629800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>623000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>633700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>637300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>633200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>627500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>645000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3301500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3306800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3322700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3337900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3357700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3377400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3413600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3411600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>428700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>431700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>431900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>435800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2043800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2041200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2046800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2068500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2073900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2101400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2113500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2134700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2177500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2211700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2144400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2147600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2157600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2161300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2156900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2164900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2200100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E52" s="3">
         <v>42500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>55900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>49400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>48500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>46900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>43200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>42500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>41300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>38900</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>34100</v>
       </c>
       <c r="AE52" s="3">
         <v>34100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4691700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4697400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4690400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4692900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4727100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4758000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4845400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4875100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2567800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1490600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1434300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1409000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4479400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4408100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4585900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4430700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4478300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4660300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4705900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4623800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4601300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4634700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4507200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4388200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4464000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4483000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4444400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4358500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4477100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,105 +4707,109 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E57" s="3">
         <v>140000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>136700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>148900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>161800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>158600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>140400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>363800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>342600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>340300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>337000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>362300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>416700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>429600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>424800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>415300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>438600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>423500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>384300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>417200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>406500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>393800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>334200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>343600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
@@ -4690,25 +4824,25 @@
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>63500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>230600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4723,396 +4857,411 @@
         <v>600</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>100500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>100800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>101200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>100600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>100700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>100400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>100600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>100800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E59" s="3">
         <v>169100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>161000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>144400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>155900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>167000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>153300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>236400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>235200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>239400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>222900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>226300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>228000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>244800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>258200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>245800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>229000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>188900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>226500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>217100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>225600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>219800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>266800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>255500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E60" s="3">
         <v>316000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>309300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>282700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>306200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>330400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>313500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>343000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>88400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>830800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>578400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>580300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>560500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>589200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>645300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>676500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>683500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>661700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>768100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>713200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>712000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>734900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>732800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>714000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>701600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>699900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1321900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1343300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1393500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1462500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1520600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1563800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1686800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1726700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>840200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1125100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1364300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1136900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1200300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1222700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1213200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1306600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1278300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1235100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1081500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1039900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1113800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1199500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1269100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1310900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1409700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>447300</v>
+      </c>
+      <c r="E62" s="3">
         <v>450400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>451700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>466700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>460100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>466200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>473300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>470300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>102600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>101400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>356500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>357600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>341200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>352900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>359700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>361900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>372200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>295200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>301800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>290800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>292300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>281600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>312900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>301900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>287500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>267800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2109700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2154500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2212000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2286900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2360400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2473600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2540100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>216200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>204300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>204200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2057500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2089000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2315300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2079600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2177000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2259300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2291000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2313300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2268800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2324700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2118100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2062700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2194900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2277200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2311800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2319700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2414300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1120100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1074200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1029900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>986500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>955900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>917800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>911900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>885500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>891300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>884900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>858900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>833900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1972500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1919700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1903800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1886700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1870900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1882700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1851800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1777900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1742300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1704400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1655100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1611600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1571500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1525000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1487500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1452000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1417200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2634200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2587700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2535900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2480900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2440100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2397600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2371800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2334900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2337100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1274400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1230000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1204800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2421900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2319100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2270600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2351100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2301300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2401000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2414900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2310500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2332500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2310000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2389100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2325500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2269100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2205800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2132600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2038800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2062800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E81" s="3">
         <v>44300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>66600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>55600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>65900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>58400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>62200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>53000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>46300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>45600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>59600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E83" s="3">
         <v>29700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>34800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>34100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>34300</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>34400</v>
       </c>
       <c r="AC83" s="3">
         <v>34400</v>
       </c>
       <c r="AD83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="AE83" s="3">
         <v>38800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E89" s="3">
         <v>61700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>71300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>137300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>140600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>112300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>112400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>106000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>101800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>56900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>86100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>98400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>50500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>111200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>154100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-16700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-19100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-14400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2923100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>116900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>99200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-182600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-15500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>9900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7690,49 +7924,49 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-12300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-12600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-12000</v>
       </c>
       <c r="U96" s="3">
         <v>-12000</v>
       </c>
       <c r="V96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-12100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-12200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-10600</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-10800</v>
       </c>
       <c r="AD96" s="3">
         <v>-10800</v>
@@ -7740,8 +7974,11 @@
       <c r="AE96" s="3">
         <v>-10800</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,271 +8250,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-75800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-43600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-136400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-111800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1790000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1015700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>188700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-93600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-131500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-66300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-106000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-33900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-80200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>94300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-91700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-134400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-104200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-60300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-111000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-115900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>3100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-7200</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-72600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1093100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1172800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-172300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>273100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>64200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-47000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-57100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-18600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>10100</v>
       </c>
     </row>
